--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N2">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O2">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P2">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q2">
-        <v>7.870087027824001</v>
+        <v>17.23399582563975</v>
       </c>
       <c r="R2">
-        <v>31.480348111296</v>
+        <v>68.93598330255901</v>
       </c>
       <c r="S2">
-        <v>0.007916049318155684</v>
+        <v>0.0236006972012326</v>
       </c>
       <c r="T2">
-        <v>0.004813953983361058</v>
+        <v>0.01664972635412463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H3">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I3">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J3">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.963642</v>
       </c>
       <c r="O3">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P3">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q3">
-        <v>282.9933464381707</v>
+        <v>370.476430871323</v>
       </c>
       <c r="R3">
-        <v>1697.960078629024</v>
+        <v>2222.858585227938</v>
       </c>
       <c r="S3">
-        <v>0.2846460628954272</v>
+        <v>0.5073403842990025</v>
       </c>
       <c r="T3">
-        <v>0.2596509306442907</v>
+        <v>0.5368747263025975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H4">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I4">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J4">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N4">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O4">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P4">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q4">
-        <v>125.632258859012</v>
+        <v>155.4340315927238</v>
       </c>
       <c r="R4">
-        <v>502.529035436048</v>
+        <v>621.736126370895</v>
       </c>
       <c r="S4">
-        <v>0.1263659669280954</v>
+        <v>0.2128555415412793</v>
       </c>
       <c r="T4">
-        <v>0.07684640726777404</v>
+        <v>0.150164484099911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H5">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I5">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J5">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N5">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O5">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P5">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q5">
-        <v>14.81315388011734</v>
+        <v>0.325312278252</v>
       </c>
       <c r="R5">
-        <v>88.878923280704</v>
+        <v>1.951873669512</v>
       </c>
       <c r="S5">
-        <v>0.01489966454727499</v>
+        <v>0.0004454913795120161</v>
       </c>
       <c r="T5">
-        <v>0.01359130608249086</v>
+        <v>0.0004714252400312033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>19.394515</v>
       </c>
       <c r="I6">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J6">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N6">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O6">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P6">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q6">
-        <v>1.25633789267</v>
+        <v>2.101495905244167</v>
       </c>
       <c r="R6">
-        <v>7.53802735602</v>
+        <v>12.608975431465</v>
       </c>
       <c r="S6">
-        <v>0.00126367506273857</v>
+        <v>0.002877844989117994</v>
       </c>
       <c r="T6">
-        <v>0.001152710150755165</v>
+        <v>0.003045376021088535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J7">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>20.963642</v>
       </c>
       <c r="O7">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P7">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q7">
         <v>45.17551880262555</v>
@@ -889,10 +889,10 @@
         <v>406.57966922363</v>
       </c>
       <c r="S7">
-        <v>0.04543934946977699</v>
+        <v>0.06186456994396874</v>
       </c>
       <c r="T7">
-        <v>0.06217389373500602</v>
+        <v>0.09819893630896617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J8">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N8">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O8">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P8">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q8">
-        <v>20.05525056943917</v>
+        <v>18.95346756680416</v>
       </c>
       <c r="R8">
-        <v>120.331503416635</v>
+        <v>113.720805400825</v>
       </c>
       <c r="S8">
-        <v>0.02017237573541106</v>
+        <v>0.02595538802974748</v>
       </c>
       <c r="T8">
-        <v>0.01840101380545017</v>
+        <v>0.02746635646559506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J9">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N9">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O9">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P9">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q9">
-        <v>2.364691325997778</v>
+        <v>0.03966824801333333</v>
       </c>
       <c r="R9">
-        <v>21.28222193398</v>
+        <v>0.35701423212</v>
       </c>
       <c r="S9">
-        <v>0.002378501418425735</v>
+        <v>5.43227652680091E-05</v>
       </c>
       <c r="T9">
-        <v>0.003254463282669186</v>
+        <v>8.622767072512732E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H10">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I10">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J10">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N10">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O10">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P10">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q10">
-        <v>0.148526042966</v>
+        <v>0.2206890266981666</v>
       </c>
       <c r="R10">
-        <v>0.8911562577960001</v>
+        <v>1.324134160189</v>
       </c>
       <c r="S10">
-        <v>0.0001493934535911284</v>
+        <v>0.0003022174861496362</v>
       </c>
       <c r="T10">
-        <v>0.0001362750247185108</v>
+        <v>0.0003198107920871142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H11">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I11">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J11">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>20.963642</v>
       </c>
       <c r="O11">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P11">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q11">
-        <v>5.340713740974889</v>
+        <v>4.744116441177555</v>
       </c>
       <c r="R11">
-        <v>48.066423668774</v>
+        <v>42.69704797059799</v>
       </c>
       <c r="S11">
-        <v>0.005371904175676977</v>
+        <v>0.006496720595060514</v>
       </c>
       <c r="T11">
-        <v>0.007350285672450554</v>
+        <v>0.01031238158625061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H12">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I12">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J12">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N12">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O12">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P12">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q12">
-        <v>2.370960093737167</v>
+        <v>1.990402312674167</v>
       </c>
       <c r="R12">
-        <v>14.225760562423</v>
+        <v>11.942413876045</v>
       </c>
       <c r="S12">
-        <v>0.002384806796550987</v>
+        <v>0.002725710436819856</v>
       </c>
       <c r="T12">
-        <v>0.002175393883311081</v>
+        <v>0.002884385099305154</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H13">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I13">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J13">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N13">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O13">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P13">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q13">
-        <v>0.2795571538004445</v>
+        <v>0.004165769261333333</v>
       </c>
       <c r="R13">
-        <v>2.516014384204</v>
+        <v>0.037491923352</v>
       </c>
       <c r="S13">
-        <v>0.0002811898024639025</v>
+        <v>5.704716418734586E-06</v>
       </c>
       <c r="T13">
-        <v>0.0003847472532454767</v>
+        <v>9.055216657473031E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H14">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I14">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J14">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N14">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O14">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P14">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q14">
-        <v>2.202349909872</v>
+        <v>3.28625048491375</v>
       </c>
       <c r="R14">
-        <v>8.809399639487999</v>
+        <v>13.145001939655</v>
       </c>
       <c r="S14">
-        <v>0.002215211908171589</v>
+        <v>0.004500279761381117</v>
       </c>
       <c r="T14">
-        <v>0.00134712755829773</v>
+        <v>0.003174839535676411</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H15">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I15">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J15">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.963642</v>
       </c>
       <c r="O15">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P15">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q15">
-        <v>79.19230992224533</v>
+        <v>70.64399706936833</v>
       </c>
       <c r="R15">
-        <v>475.153859533472</v>
+        <v>423.86398241621</v>
       </c>
       <c r="S15">
-        <v>0.07965480289440871</v>
+        <v>0.09674178877532801</v>
       </c>
       <c r="T15">
-        <v>0.07266021349966484</v>
+        <v>0.1023735207725312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H16">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I16">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J16">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N16">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O16">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P16">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q16">
-        <v>35.156687975236</v>
+        <v>29.63881196569375</v>
       </c>
       <c r="R16">
-        <v>140.626751900944</v>
+        <v>118.555247862775</v>
       </c>
       <c r="S16">
-        <v>0.03536200742012973</v>
+        <v>0.04058818591367749</v>
       </c>
       <c r="T16">
-        <v>0.02150454976188021</v>
+        <v>0.02863399258551446</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H17">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I17">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J17">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N17">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O17">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P17">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q17">
-        <v>4.145284289418667</v>
+        <v>0.06203190734</v>
       </c>
       <c r="R17">
-        <v>24.871705736512</v>
+        <v>0.37219144404</v>
       </c>
       <c r="S17">
-        <v>0.004169493266948906</v>
+        <v>8.494816157308153E-05</v>
       </c>
       <c r="T17">
-        <v>0.003803364768393498</v>
+        <v>8.989333868517481E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H18">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I18">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J18">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N18">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O18">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P18">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q18">
-        <v>6.559619407572</v>
+        <v>0.1719240006501667</v>
       </c>
       <c r="R18">
-        <v>39.357716445432</v>
+        <v>1.031544003901</v>
       </c>
       <c r="S18">
-        <v>0.006597928403471315</v>
+        <v>0.0002354373484837768</v>
       </c>
       <c r="T18">
-        <v>0.006018555931740055</v>
+        <v>0.0002491431116868129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H19">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I19">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J19">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>20.963642</v>
       </c>
       <c r="O19">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P19">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q19">
-        <v>235.8714256839453</v>
+        <v>3.695822535086889</v>
       </c>
       <c r="R19">
-        <v>2122.842831155508</v>
+        <v>33.262402815782</v>
       </c>
       <c r="S19">
-        <v>0.2372489442437662</v>
+        <v>0.005061158737796065</v>
       </c>
       <c r="T19">
-        <v>0.3246237197556139</v>
+        <v>0.008033683980872102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H20">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I20">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J20">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N20">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O20">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P20">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q20">
-        <v>104.712921282211</v>
+        <v>1.550588779234167</v>
       </c>
       <c r="R20">
-        <v>628.2775276932659</v>
+        <v>9.303532675405</v>
       </c>
       <c r="S20">
-        <v>0.1053244578093721</v>
+        <v>0.002123417960209238</v>
       </c>
       <c r="T20">
-        <v>0.0960757834189884</v>
+        <v>0.002247030734185525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H21">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I21">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J21">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N21">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O21">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P21">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q21">
-        <v>12.34657905761867</v>
+        <v>0.003245271085333333</v>
       </c>
       <c r="R21">
-        <v>111.119211518568</v>
+        <v>0.029207439768</v>
       </c>
       <c r="S21">
-        <v>0.012418684620015</v>
+        <v>4.444161469908233E-06</v>
       </c>
       <c r="T21">
-        <v>0.01699227622981099</v>
+        <v>7.054311207942478E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H22">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I22">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J22">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N22">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O22">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P22">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q22">
-        <v>0.104121047856</v>
+        <v>0.1420820125536667</v>
       </c>
       <c r="R22">
-        <v>0.6247262871360001</v>
+        <v>0.8524920753220001</v>
       </c>
       <c r="S22">
-        <v>0.0001047291277684936</v>
+        <v>0.0001945709277143997</v>
       </c>
       <c r="T22">
-        <v>9.553273006500122E-05</v>
+        <v>0.0002058976907731178</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H23">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I23">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J23">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>20.963642</v>
       </c>
       <c r="O23">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P23">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q23">
-        <v>3.743994655109333</v>
+        <v>3.054314126244889</v>
       </c>
       <c r="R23">
-        <v>33.695951895984</v>
+        <v>27.488827136204</v>
       </c>
       <c r="S23">
-        <v>0.00376586005109924</v>
+        <v>0.004182659876458285</v>
       </c>
       <c r="T23">
-        <v>0.005152762646694151</v>
+        <v>0.006639224214803393</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H24">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I24">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J24">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N24">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O24">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P24">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q24">
-        <v>1.662111535828</v>
+        <v>1.281442809401667</v>
       </c>
       <c r="R24">
-        <v>9.972669214968001</v>
+        <v>7.688656856410001</v>
       </c>
       <c r="S24">
-        <v>0.001671818474608128</v>
+        <v>0.001754842233418198</v>
       </c>
       <c r="T24">
-        <v>0.00152501397133251</v>
+        <v>0.001856998719059957</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H25">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I25">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J25">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N25">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O25">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P25">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q25">
-        <v>0.1959776427626667</v>
+        <v>0.002681967877333334</v>
       </c>
       <c r="R25">
-        <v>1.763798784864</v>
+        <v>0.024137710896</v>
       </c>
       <c r="S25">
-        <v>0.0001971221766519783</v>
+        <v>3.672758913066924E-06</v>
       </c>
       <c r="T25">
-        <v>0.0002697189419959655</v>
+        <v>5.829847664165457E-06</v>
       </c>
     </row>
   </sheetData>
